--- a/doc/分工表.xlsx
+++ b/doc/分工表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,22 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bmob云服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张鹿鹿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,6 +70,10 @@
   </si>
   <si>
     <t xml:space="preserve">团队名称: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,20 +141,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,180 +475,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="25.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="15.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>42671</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>42671</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3">
-        <v>42671</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="F14" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="3">
-        <v>42671</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>42671</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3">
-        <v>42671</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/doc/分工表.xlsx
+++ b/doc/分工表.xlsx
@@ -152,14 +152,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,28 +478,28 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="25.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="15.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="25.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="15.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -534,10 +534,10 @@
       <c r="D3" s="2">
         <v>42671</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -550,10 +550,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>42671</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+        <v>42672</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -562,8 +562,8 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -572,8 +572,8 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -582,8 +582,8 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -592,8 +592,8 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -602,8 +602,8 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -612,8 +612,8 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -622,14 +622,14 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>11</v>
       </c>
     </row>
